--- a/fhir/ig/urgencia/CodeSystem-CSServicioDeSalud.xlsx
+++ b/fhir/ig/urgencia/CodeSystem-CSServicioDeSalud.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:38:19-03:00</t>
+    <t>2024-12-13T10:10:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
